--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="40">
   <si>
     <t>Информационная модель моего развития в рамках учебного курса</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t>Математическое моделирование в финансовой сфере и технологии принятия решений на финансовых рынках</t>
-  </si>
-  <si>
-    <t>Полное название курса</t>
   </si>
   <si>
     <t>Ф.И.О.:</t>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>Компетенция используется на уровне применения релевантных НТС с возможностью их развития</t>
+  </si>
+  <si>
+    <t>X(X)</t>
   </si>
   <si>
     <t>Использование математического моделирования для оптимизации стратегий на финансовых рынках</t>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Исследование применения системного анализа и методов оптимизации в контексте решения финансовых задач. Анализ того, как эти методы могут улучшить принятие решений в финансовой сфере</t>
+  </si>
+  <si>
+    <t>XX(X)</t>
   </si>
   <si>
     <t>Мероприятие нацелено на прокачку студента в рамках компетенции на уровне применения и развития соответствующих НТС. Есть потенциальная возможность развития студентом своих возможностей в рамках компетенции</t>
@@ -154,11 +157,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14.0"/>
       <color theme="1"/>
@@ -187,6 +185,11 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -369,6 +372,33 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -397,6 +427,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -408,17 +441,108 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -427,21 +551,18 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -449,13 +570,21 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -466,71 +595,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -541,7 +609,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="medium">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -552,7 +623,10 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="medium">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -560,31 +634,13 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -592,63 +648,10 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -656,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -665,17 +668,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
@@ -691,9 +694,11 @@
     <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -706,12 +711,14 @@
     <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -719,103 +726,102 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="24" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="38" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="37" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="38" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="40" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="42" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="38" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="40" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="41" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="42" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="43" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="41" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="42" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="43" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="45" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="43" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="44" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="45" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="45" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1616,55 +1622,52 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="21.0" customHeight="1">
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="E4" s="3"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" ht="21.75" customHeight="1">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="X5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="E4" s="4"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" ht="21.75" customHeight="1">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="C6" s="10"/>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" ht="27.75" customHeight="1">
@@ -1672,13 +1675,13 @@
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
       <c r="F7" s="12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>10</v>
@@ -1689,17 +1692,17 @@
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
       <c r="O7" s="18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="Y7" s="20" t="s">
@@ -1711,13 +1714,13 @@
       <c r="D8" s="11"/>
       <c r="E8" s="10"/>
       <c r="F8" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>13</v>
@@ -1728,13 +1731,13 @@
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
       <c r="O8" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -1743,249 +1746,249 @@
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="F9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>6</v>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>5</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="C10" s="38"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="39" t="s">
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="41" t="s">
+      <c r="Q10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
     </row>
     <row r="11">
       <c r="D11" s="11"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
     </row>
     <row r="12">
       <c r="D12" s="11"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
     </row>
     <row r="13">
       <c r="D13" s="11"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
     </row>
     <row r="14">
       <c r="D14" s="11"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="45"/>
     </row>
     <row r="15">
       <c r="D15" s="11"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="45"/>
     </row>
     <row r="16">
       <c r="D16" s="11"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="48"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="17">
       <c r="D17" s="11"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="45"/>
     </row>
     <row r="18">
       <c r="D18" s="11"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="48"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="45"/>
     </row>
     <row r="19">
       <c r="D19" s="11"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="48"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
     </row>
     <row r="20">
       <c r="D20" s="11"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="45"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="D21" s="11"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="45"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="D22" s="11"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="48"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="45"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="D23" s="11"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="48"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="45"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="D24" s="11"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="48"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="45"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="D25" s="11"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="53"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="50"/>
     </row>
     <row r="26" ht="33.75" customHeight="1">
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="10"/>
       <c r="F26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>21</v>
@@ -1996,37 +1999,37 @@
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
       <c r="O26" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
-      <c r="X26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y26" s="59" t="s">
+      <c r="X26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
     </row>
     <row r="27" ht="33.75" customHeight="1">
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="62" t="s">
-        <v>8</v>
+      <c r="F27" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>7</v>
       </c>
       <c r="I27" s="24" t="s">
         <v>23</v>
@@ -2036,37 +2039,37 @@
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
       <c r="N27" s="26"/>
-      <c r="O27" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="65" t="s">
-        <v>8</v>
+      <c r="O27" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="60" t="s">
+        <v>7</v>
       </c>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-      <c r="X27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="59" t="s">
+      <c r="X27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="54"/>
     </row>
     <row r="28" ht="33.75" customHeight="1">
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="67" t="s">
+      <c r="G28" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="63" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="24" t="s">
@@ -2077,55 +2080,55 @@
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
       <c r="N28" s="26"/>
-      <c r="O28" s="69" t="s">
+      <c r="O28" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q28" s="71" t="s">
-        <v>8</v>
+      <c r="Q28" s="66" t="s">
+        <v>26</v>
       </c>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
-      <c r="X28" s="3" t="s">
+      <c r="X28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y28" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
+      <c r="Y28" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="54"/>
     </row>
     <row r="29" ht="33.75" customHeight="1">
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="68" t="s">
-        <v>8</v>
+      <c r="F29" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
       <c r="N29" s="26"/>
-      <c r="O29" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="P29" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="71" t="s">
-        <v>6</v>
+      <c r="O29" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="66" t="s">
+        <v>7</v>
       </c>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -2134,35 +2137,35 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P30" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="37" t="s">
-        <v>6</v>
+      <c r="F30" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
-      <c r="W30" s="7"/>
+      <c r="W30" s="6"/>
     </row>
     <row r="31" ht="30.75" customHeight="1">
       <c r="C31" s="10"/>
@@ -2171,7 +2174,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="8"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
@@ -2185,7 +2188,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="8"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
@@ -2199,7 +2202,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="8"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
@@ -2211,78 +2214,78 @@
     </row>
     <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="Z36" s="7"/>
+      <c r="C36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="Z36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>30</v>
+      <c r="C37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>31</v>
+      <c r="C38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>32</v>
+      <c r="D39" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="I40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="O40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="I42" s="74"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="T43" s="7"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="T43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="I47" s="20"/>
@@ -2293,9 +2296,9 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="I50" s="20"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="7"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
@@ -3312,24 +3315,24 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="L1" s="6"/>
     </row>
     <row r="2">
-      <c r="F2" s="3" t="s">
-        <v>34</v>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>8</v>
+      <c r="D3" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>7</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>10</v>
@@ -3339,31 +3342,31 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="3" t="s">
+    </row>
+    <row r="4" ht="27.75" customHeight="1">
+      <c r="C4" s="75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="27.75" customHeight="1">
-      <c r="C4" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>8</v>
+      <c r="D4" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>7</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>13</v>
@@ -3373,72 +3376,72 @@
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="79" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="81" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="39" t="s">
+      <c r="F6" s="85"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R6" s="20" t="s">
@@ -3446,168 +3449,168 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8">
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9">
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10">
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11">
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12">
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13">
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14">
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15">
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16">
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17">
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
     </row>
     <row r="18">
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="45"/>
     </row>
     <row r="19">
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="48"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="45"/>
     </row>
     <row r="20">
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="53"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="50"/>
     </row>
     <row r="22" ht="28.5" customHeight="1">
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="58" t="s">
-        <v>8</v>
+      <c r="E22" s="74" t="s">
+        <v>7</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>21</v>
@@ -3617,28 +3620,28 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="76" t="s">
+      <c r="L22" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="58" t="s">
+      <c r="M22" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>6</v>
+      <c r="Q22" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="1">
-      <c r="C23" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>8</v>
+      <c r="C23" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>7</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>23</v>
@@ -3648,27 +3651,27 @@
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
-      <c r="L23" s="60" t="s">
+      <c r="L23" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="61" t="s">
+      <c r="M23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="62" t="s">
+      <c r="N23" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
+      <c r="Q23" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" ht="49.5" customHeight="1">
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="24" t="s">
@@ -3679,180 +3682,180 @@
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="26"/>
-      <c r="L24" s="66" t="s">
+      <c r="L24" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="67" t="s">
+      <c r="M24" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N24" s="68" t="s">
+      <c r="N24" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" ht="27.75" customHeight="1">
-      <c r="C25" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>8</v>
+      <c r="C25" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="67" t="s">
+      <c r="M25" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="68" t="s">
+      <c r="N25" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" ht="28.5" customHeight="1">
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="26"/>
-      <c r="L26" s="66" t="s">
+      <c r="L26" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="67" t="s">
+      <c r="M26" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="68" t="s">
+      <c r="N26" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="P26" s="7"/>
+      <c r="P26" s="6"/>
     </row>
     <row r="27" ht="30.75" customHeight="1">
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="68"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
     </row>
     <row r="28" ht="31.5" customHeight="1">
-      <c r="C28" s="72"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="73"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="84"/>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="S30" s="7"/>
+      <c r="C30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="S30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>36</v>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>31</v>
+      <c r="C32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>37</v>
+      <c r="D33" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="F34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="7"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
+      <c r="C36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="F41" s="20"/>
@@ -3863,7 +3866,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="F44" s="20"/>
-      <c r="AB44" s="7"/>
+      <c r="AB44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
